--- a/challenge_day3/namesgroups.xlsx
+++ b/challenge_day3/namesgroups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gur Levy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gur Levy\computational-thinking-week-group-trashmasters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D64C25E-65AC-4931-B956-90DDFE3121AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76650BE2-5ADC-41D9-BCFA-058EC1018C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,8 +148,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,17 +470,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -484,26 +493,41 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2</v>
+      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>2</v>
+      </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -517,26 +541,41 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>3</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>3</v>
+      </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>3</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -566,26 +605,41 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>6</v>
+      </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>6</v>
+      </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>6</v>
+      </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>6</v>
+      </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>6</v>
+      </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
@@ -599,26 +653,41 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>7</v>
+      </c>
       <c r="D30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>7</v>
+      </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>7</v>
+      </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>7</v>
+      </c>
       <c r="D33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>7</v>
+      </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
@@ -632,26 +701,41 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>8</v>
+      </c>
       <c r="D37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>8</v>
+      </c>
       <c r="D38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>8</v>
+      </c>
       <c r="D39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>8</v>
+      </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>8</v>
+      </c>
       <c r="D41" t="s">
         <v>32</v>
       </c>
@@ -665,21 +749,33 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>9</v>
+      </c>
       <c r="D44" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>9</v>
+      </c>
       <c r="D45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>9</v>
+      </c>
       <c r="D46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>9</v>
+      </c>
       <c r="D47" t="s">
         <v>37</v>
       </c>
@@ -694,5 +790,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>